--- a/pueblos mágicos.xlsx
+++ b/pueblos mágicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALIENWARE\Documents\turismo\turismo\pueblos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Documentos\GitHub\dataviz_varios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79D248-E386-4A5D-A277-9A2754587CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6A4E1-006F-49D8-AAC4-9B039A81432F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DD9478F7-A34F-4722-9DAC-9D57F728A3F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD9478F7-A34F-4722-9DAC-9D57F728A3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="162">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -874,12 +874,12 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -896,7 +896,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>32</v>
       </c>
@@ -913,7 +913,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>95</v>
       </c>
@@ -930,7 +930,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -947,7 +947,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>26</v>
       </c>
@@ -964,7 +964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31</v>
       </c>
@@ -981,7 +981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -998,7 +998,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>52</v>
       </c>
@@ -1011,8 +1011,11 @@
       <c r="D8" s="1">
         <v>2002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>58</v>
       </c>
@@ -1025,8 +1028,11 @@
       <c r="D9" s="1">
         <v>2002</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>63</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>77</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>114</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>19</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>44</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>35</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>40</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>53</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>87</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>97</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>101</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>56</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>70</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>93</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>108</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>112</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>104</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>106</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>117</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>98</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>48</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>59</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>88</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>103</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>34</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>50</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>64</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>84</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>86</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>96</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>105</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>110</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>121</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>8</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>17</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>23</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>27</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>28</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>29</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>30</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>33</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>38</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>49</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>55</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>57</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>60</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>62</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>66</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>78</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>80</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>82</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>83</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>90</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>100</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>102</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>115</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>118</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>119</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>120</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>11</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>22</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>36</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>39</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>42</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>46</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>47</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>63</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>54</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>67</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>69</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>71</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>73</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>74</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>75</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>76</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>79</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>89</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>91</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>92</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>99</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>107</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>25</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>37</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>45</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>65</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>68</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>85</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>94</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>116</v>
       </c>
